--- a/Thermodata.xlsx
+++ b/Thermodata.xlsx
@@ -1401,7 +1401,7 @@
     <col min="10" max="10" style="29" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="8"/>
       <c r="B4" s="15" t="s">
         <v>15</v>
@@ -1517,7 +1517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="22"/>
       <c r="B7" s="15" t="s">
         <v>24</v>
@@ -1599,7 +1599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8"/>
       <c r="B8" s="15" t="s">
         <v>24</v>
@@ -1623,7 +1623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="21" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="21" t="s">
         <v>31</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="21" t="s">
         <v>34</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="21" t="s">
         <v>43</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="14" t="s">
         <v>49</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8"/>
       <c r="B17" s="15" t="s">
         <v>50</v>
@@ -1895,7 +1895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="21" t="s">
         <v>53</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="14" t="s">
         <v>56</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="8"/>
       <c r="B20" s="15" t="s">
         <v>57</v>
@@ -1979,7 +1979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="21" t="s">
         <v>60</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
         <v>61</v>
